--- a/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,03</t>
+          <t>-0,41; 2,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,17</t>
+          <t>-2,45; 0,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,45</t>
+          <t>-0,73; 0,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,44</t>
+          <t>0,09; 4,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-81,81; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 81,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,84</t>
+          <t>-1,01; 0,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,55</t>
+          <t>0,42; 3,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,36</t>
+          <t>-0,46; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,68</t>
+          <t>-4,39; 0,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,79; 333,47</t>
+          <t>-88,15; 346,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 1240,28</t>
+          <t>15,03; 1122,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,63; 90,93</t>
+          <t>-86,97; 101,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,83</t>
+          <t>-1,2; 0,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,92</t>
+          <t>-0,71; 2,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,81</t>
+          <t>-1,14; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,43</t>
+          <t>-1,41; 1,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-86,77; 359,36</t>
+          <t>-84,08; 482,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 394,92</t>
+          <t>-49,07; 418,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,04; 285,41</t>
+          <t>-83,4; 318,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 258,45</t>
+          <t>-61,02; 238,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,65</t>
+          <t>-0,82; 2,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,75</t>
+          <t>-1,88; 2,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,27</t>
+          <t>-2,43; 0,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,46</t>
+          <t>-1,43; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 474,9</t>
+          <t>-50,91; 459,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,98; 120,3</t>
+          <t>-57,77; 153,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,12; 39,13</t>
+          <t>-84,59; 42,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 101,86</t>
+          <t>-44,19; 113,04</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,08</t>
+          <t>-3,42; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,81</t>
+          <t>-1,25; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,73</t>
+          <t>-2,15; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,9</t>
+          <t>-2,11; 1,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 70,37</t>
+          <t>-76,82; 70,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 261,03</t>
+          <t>-50,29; 253,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 81,61</t>
+          <t>-40,74; 71,1</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,52</t>
+          <t>-2,78; 1,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,03</t>
+          <t>-1,8; 2,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,71</t>
+          <t>-0,32; 2,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 39,33</t>
+          <t>1,83; 34,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 60,0</t>
+          <t>-55,38; 52,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 112,86</t>
+          <t>-44,85; 115,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 387,56</t>
+          <t>-26,51; 396,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,29; 1525,69</t>
+          <t>45,15; 1288,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,67</t>
+          <t>-0,54; 0,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,16</t>
+          <t>-0,2; 1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,58</t>
+          <t>-0,43; 0,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 13,03</t>
+          <t>0,46; 12,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 55,16</t>
+          <t>-28,89; 50,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 84,48</t>
+          <t>-11,01; 86,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 73,43</t>
+          <t>-34,58; 78,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,1; 568,09</t>
+          <t>18,03; 597,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3503,33%</t>
+          <t>3426,4%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,98</t>
+          <t>0,02; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,12%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-45,3%</t>
+          <t>-61,94%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,85</t>
+          <t>-0,9; 1,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,7</t>
+          <t>-4,5; 0,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,15; 346,5</t>
+          <t>-83,88; 401,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,97; 101,36</t>
+          <t>-91,58; 50,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,88</t>
+          <t>-0,98; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,31</t>
+          <t>-1,57; 1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,08; 482,77</t>
+          <t>-75,7; 491,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 238,26</t>
+          <t>-64,0; 204,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,53</t>
+          <t>-0,68; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 113,04</t>
+          <t>-30,13; 260,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>-4,25%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,83</t>
+          <t>-2,26; 1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 71,1</t>
+          <t>-44,64; 66,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>33,36</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-64,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>70,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>364,99%</t>
+          <t>1019,32%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,29</t>
+          <t>-5,91; -0,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,08</t>
+          <t>-1,56; 4,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,7</t>
+          <t>-1,35; 2,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 34,0</t>
+          <t>0,52; 73,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,38; 52,97</t>
+          <t>-88,69; -7,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 115,25</t>
+          <t>-57,79; 469,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 396,31</t>
+          <t>-81,9; 904,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,15; 1288,45</t>
+          <t>12,65; 5076,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>-27,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>103,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>145,32%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,65</t>
+          <t>-1,44; 5,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-4,22; 1,91</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 4,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 6,14</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-45,89; 545,85</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-69,9; 93,66</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-46,67; 838,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 254,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>273,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 0,73</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>-0,2; 1,15</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,43; 0,56</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 12,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-28,89; 50,46</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 22,25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-26,27; 57,48</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-11,01; 86,81</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-34,58; 78,41</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,03; 597,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 1143,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,05</t>
+          <t>-0,35; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,19</t>
+          <t>-2,21; 0,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,65</t>
+          <t>0,01; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,81; —</t>
+          <t>-72,13; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,09</t>
+          <t>-0,88; 1,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,5</t>
+          <t>0,45; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,36</t>
+          <t>-0,35; 1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,23</t>
+          <t>-4,61; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,88; 401,43</t>
+          <t>-82,62; 325,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 1122,12</t>
+          <t>15,97; 1501,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 50,32</t>
+          <t>-95,08; 26,08</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,12</t>
+          <t>-1,09; 1,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,02</t>
+          <t>-0,85; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,78</t>
+          <t>-1,13; 0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,11</t>
+          <t>-1,56; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,7; 491,11</t>
+          <t>-80,39; 443,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 418,6</t>
+          <t>-53,48; 413,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 318,62</t>
+          <t>-82,48; 304,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 204,13</t>
+          <t>-65,72; 211,83</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,36</t>
+          <t>-0,59; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,01</t>
+          <t>-2,01; 1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,27</t>
+          <t>-2,31; 0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,3</t>
+          <t>-0,83; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 459,8</t>
+          <t>-40,4; 520,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 153,19</t>
+          <t>-58,86; 141,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,59; 42,2</t>
+          <t>-83,26; 68,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 260,82</t>
+          <t>-30,55; 314,58</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,16</t>
+          <t>-3,6; 0,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,69</t>
+          <t>-1,15; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,68</t>
+          <t>-2,26; 0,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,69</t>
+          <t>-2,46; 1,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-76,82; 70,25</t>
+          <t>-76,18; 54,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 253,95</t>
+          <t>-47,74; 285,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 66,91</t>
+          <t>-44,71; 62,13</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -0,58</t>
+          <t>-5,77; -0,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,03</t>
+          <t>-1,45; 3,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,22</t>
+          <t>-1,39; 2,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 73,61</t>
+          <t>0,32; 70,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-88,69; -7,82</t>
+          <t>-87,47; -13,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 469,25</t>
+          <t>-53,11; 453,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 904,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 5076,8</t>
+          <t>8,07; 3821,44</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 5,02</t>
+          <t>-1,32; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,91</t>
+          <t>-4,65; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,17</t>
+          <t>-0,8; 4,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,14</t>
+          <t>1,01; 6,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 545,85</t>
+          <t>-40,66; 555,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 93,66</t>
+          <t>-73,01; 68,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 838,73</t>
+          <t>-49,16; 832,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 254,69</t>
+          <t>15,48; 278,97</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,73</t>
+          <t>-0,57; 0,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,15</t>
+          <t>-0,23; 1,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,56</t>
+          <t>-0,44; 0,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 22,25</t>
+          <t>0,46; 23,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 57,48</t>
+          <t>-28,32; 56,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 86,81</t>
+          <t>-12,01; 80,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 78,41</t>
+          <t>-35,34; 73,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,25; 1143,88</t>
+          <t>19,06; 1225,76</t>
         </is>
       </c>
     </row>
